--- a/out/production/compiladorProyectoFinal/ConjuntosPrimeroSiguienteYTabla.xlsx
+++ b/out/production/compiladorProyectoFinal/ConjuntosPrimeroSiguienteYTabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abb505a438881cda/Documentos/GitHub/analizadorLexico/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1249" documentId="6_{50C3F8EF-7E9E-49DB-BA39-8D42B9971A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA829FDB-27FC-43D1-AA38-F0C029627F80}"/>
+  <xr:revisionPtr revIDLastSave="1364" documentId="6_{50C3F8EF-7E9E-49DB-BA39-8D42B9971A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6DB7AA5-8FEB-48B9-82BF-452BF05DF95A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{4ECC540F-258D-45E1-9A5C-C3D8C3A8BB7F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="181">
   <si>
     <t>Primero</t>
   </si>
@@ -395,21 +395,6 @@
     <t>r27</t>
   </si>
   <si>
-    <t>!', and, or, '=', ';', ')', ','</t>
-  </si>
-  <si>
-    <t>&gt;', '&lt;', '!', and, or, '=', ';', ')', ','</t>
-  </si>
-  <si>
-    <t>-', '+', '&gt;', '&lt;', '!', and, or, '=', ';', ')', ','</t>
-  </si>
-  <si>
-    <t>/', '*', '-', '+', '&gt;', '&lt;', '!', and, or, '=', ';', ')', ','</t>
-  </si>
-  <si>
-    <t>(', '/', '*', '-', '+', '&gt;', '&lt;', '!', and, or, '=', ';', ')', ','</t>
-  </si>
-  <si>
     <t>r29</t>
   </si>
   <si>
@@ -579,6 +564,24 @@
   </si>
   <si>
     <t>d96</t>
+  </si>
+  <si>
+    <t>==', '!=', and, or, '=', ';', ')', ','</t>
+  </si>
+  <si>
+    <t>&gt;=', '&lt;=', '&gt;', '&lt;', '==', '!=', and, or, '=', ';', ')', ','</t>
+  </si>
+  <si>
+    <t>-', '+', '&gt;=', '&lt;=', '&gt;', '&lt;', '==', '!=', and, or, '=', ';', ')', ','</t>
+  </si>
+  <si>
+    <t>/', '*', '-', '+', '&gt;=', '&lt;=', '&gt;', '&lt;', '==', '!=', and, or, '=', ';', ')', ','</t>
+  </si>
+  <si>
+    <t>(', '/', '*', '-', '+', '&gt;=', '&lt;=', '&gt;', '&lt;', '==', '!=', and, or, '=', ';', ')', ','</t>
+  </si>
+  <si>
+    <t>fun, var, $, for, if, print, return, while, '{', '}', '!', '-', true, false, null, number, string, id, '(', ';'</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -1090,9 +1093,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1425,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99923972-C091-4E9D-9C54-8623750091A9}">
   <dimension ref="A1:CJ303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP21" sqref="AP21"/>
+    <sheetView tabSelected="1" topLeftCell="E104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L111" sqref="L111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,16 +1617,16 @@
         <v>85</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>163</v>
+        <v>157</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>158</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>86</v>
@@ -2292,7 +2292,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="26">
@@ -2482,7 +2482,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="26">
@@ -2717,7 +2717,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="26">
@@ -3187,7 +3187,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="26">
@@ -3380,7 +3380,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="26">
@@ -3571,7 +3571,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="26">
@@ -4260,7 +4260,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="26">
@@ -4433,7 +4433,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="26">
@@ -4606,7 +4606,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="26">
@@ -4779,7 +4779,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="26">
@@ -5161,7 +5161,7 @@
         <v>39</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="26">
@@ -5352,7 +5352,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="26">
@@ -6975,10 +6975,10 @@
         <v>26</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="AA29" s="15"/>
       <c r="AB29" s="15" t="str">
-        <f t="shared" ref="AA29:AM29" si="30">IF(AB182="", "", CONCATENATE("d", AB182))</f>
+        <f t="shared" ref="AB29:AM29" si="30">IF(AB182="", "", CONCATENATE("d", AB182))</f>
         <v/>
       </c>
       <c r="AC29" s="15" t="str">
@@ -7164,13 +7164,17 @@
       <c r="F30" s="26">
         <v>27</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
+      <c r="G30" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="I30" s="15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K30" s="15" t="str">
         <f t="shared" ref="K30:AO30" si="31">IF(K183="", "", CONCATENATE("d", K183))</f>
@@ -7181,10 +7185,10 @@
         <v/>
       </c>
       <c r="M30" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O30" s="15" t="str">
         <f t="shared" si="31"/>
@@ -7195,7 +7199,7 @@
         <v/>
       </c>
       <c r="Q30" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R30" s="15" t="str">
         <f t="shared" si="31"/>
@@ -7226,14 +7230,12 @@
         <v/>
       </c>
       <c r="Y30" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Z30" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA30" s="15" t="s">
-        <v>123</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="AA30" s="15"/>
       <c r="AB30" s="15" t="str">
         <f t="shared" si="31"/>
         <v>d65</v>
@@ -7283,7 +7285,7 @@
         <v/>
       </c>
       <c r="AN30" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AO30" s="15" t="str">
         <f t="shared" si="31"/>
@@ -7350,16 +7352,24 @@
         <v>43</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="26">
         <v>28</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="G31" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>119</v>
+      </c>
       <c r="K31" s="15" t="str">
         <f t="shared" ref="K31:AO31" si="32">IF(K184="", "", CONCATENATE("d", K184))</f>
         <v/>
@@ -7369,10 +7379,10 @@
         <v/>
       </c>
       <c r="M31" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="O31" s="15" t="str">
         <f t="shared" si="32"/>
@@ -7383,7 +7393,7 @@
         <v/>
       </c>
       <c r="Q31" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R31" s="15" t="str">
         <f t="shared" si="32"/>
@@ -7414,19 +7424,17 @@
         <v/>
       </c>
       <c r="Y31" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Z31" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA31" s="15" t="s">
-        <v>124</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="AA31" s="15"/>
       <c r="AB31" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AC31" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AD31" s="15" t="str">
         <f t="shared" si="32"/>
@@ -7469,7 +7477,7 @@
         <v/>
       </c>
       <c r="AN31" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AO31" s="15" t="str">
         <f t="shared" si="32"/>
@@ -7536,16 +7544,24 @@
         <v>61</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="26">
         <v>29</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
+      <c r="G32" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="K32" s="15" t="str">
         <f t="shared" ref="K32:AO32" si="33">IF(K185="", "", CONCATENATE("d", K185))</f>
         <v/>
@@ -7555,10 +7571,10 @@
         <v/>
       </c>
       <c r="M32" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O32" s="15" t="str">
         <f t="shared" si="33"/>
@@ -7569,7 +7585,7 @@
         <v/>
       </c>
       <c r="Q32" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R32" s="15" t="str">
         <f t="shared" si="33"/>
@@ -7600,25 +7616,23 @@
         <v/>
       </c>
       <c r="Y32" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Z32" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA32" s="15" t="s">
-        <v>125</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="AA32" s="15"/>
       <c r="AB32" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AC32" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AD32" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AE32" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AF32" s="15" t="str">
         <f t="shared" si="33"/>
@@ -7653,7 +7667,7 @@
         <v/>
       </c>
       <c r="AN32" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AO32" s="15" t="str">
         <f t="shared" si="33"/>
@@ -7720,7 +7734,7 @@
         <v>43</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="26">
@@ -7917,7 +7931,7 @@
         <v>64</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="26">
@@ -8114,16 +8128,24 @@
         <v>43</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="E35" s="25"/>
       <c r="F35" s="26">
         <v>32</v>
       </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
+      <c r="G35" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="K35" s="15" t="str">
         <f t="shared" ref="K35:AO35" si="36">IF(K188="", "", CONCATENATE("d", K188))</f>
         <v/>
@@ -8133,10 +8155,10 @@
         <v/>
       </c>
       <c r="M35" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="O35" s="15" t="str">
         <f>IF(O188="", "", CONCATENATE("d", O188))</f>
@@ -8147,7 +8169,7 @@
         <v/>
       </c>
       <c r="Q35" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R35" s="15" t="str">
         <f t="shared" si="36"/>
@@ -8178,31 +8200,29 @@
         <v/>
       </c>
       <c r="Y35" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Z35" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA35" s="15" t="s">
-        <v>127</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="AA35" s="15"/>
       <c r="AB35" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AC35" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AD35" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AE35" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AF35" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AG35" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AH35" s="15" t="str">
         <f t="shared" si="36"/>
@@ -8229,7 +8249,7 @@
         <v/>
       </c>
       <c r="AN35" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AO35" s="15" t="str">
         <f t="shared" si="36"/>
@@ -8294,16 +8314,24 @@
         <v>67</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="E36" s="25"/>
       <c r="F36" s="26">
         <v>33</v>
       </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
+      <c r="G36" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="K36" s="15" t="str">
         <f t="shared" ref="K36:AO36" si="37">IF(K189="", "", CONCATENATE("d", K189))</f>
         <v/>
@@ -8313,10 +8341,10 @@
         <v/>
       </c>
       <c r="M36" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O36" s="15" t="str">
         <f t="shared" si="37"/>
@@ -8327,7 +8355,7 @@
         <v>d76</v>
       </c>
       <c r="Q36" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R36" s="15" t="str">
         <f t="shared" si="37"/>
@@ -8358,31 +8386,29 @@
         <v/>
       </c>
       <c r="Y36" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="Z36" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA36" s="15" t="s">
-        <v>128</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="AA36" s="15"/>
       <c r="AB36" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AC36" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AD36" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AE36" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AF36" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AG36" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AH36" s="15" t="str">
         <f t="shared" si="37"/>
@@ -8409,7 +8435,7 @@
         <v/>
       </c>
       <c r="AN36" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AO36" s="15" t="str">
         <f t="shared" si="37"/>
@@ -8476,16 +8502,24 @@
         <v>43</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="E37" s="25"/>
       <c r="F37" s="26">
         <v>34</v>
       </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
+      <c r="G37" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="K37" s="15" t="str">
         <f t="shared" ref="K37:AO42" si="38">IF(K190="", "", CONCATENATE("d", K190))</f>
         <v/>
@@ -8495,20 +8529,20 @@
         <v/>
       </c>
       <c r="M37" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O37" s="15" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P37" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q37" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R37" s="15" t="str">
         <f t="shared" si="38"/>
@@ -8539,31 +8573,29 @@
         <v/>
       </c>
       <c r="Y37" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Z37" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA37" s="15" t="s">
-        <v>129</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AA37" s="15"/>
       <c r="AB37" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AC37" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AD37" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AE37" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AF37" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AG37" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AH37" s="15" t="str">
         <f t="shared" si="38"/>
@@ -8590,7 +8622,7 @@
         <v/>
       </c>
       <c r="AN37" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AO37" s="15" t="str">
         <f t="shared" si="38"/>
@@ -8655,16 +8687,24 @@
         <v>70</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="E38" s="25"/>
       <c r="F38" s="26">
         <v>35</v>
       </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
+      <c r="G38" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="K38" s="15" t="str">
         <f t="shared" ref="K38:AO38" si="39">IF(K191="", "", CONCATENATE("d", K191))</f>
         <v/>
@@ -8674,20 +8714,20 @@
         <v/>
       </c>
       <c r="M38" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O38" s="15" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P38" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q38" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R38" s="15" t="str">
         <f t="shared" si="38"/>
@@ -8718,31 +8758,29 @@
         <v/>
       </c>
       <c r="Y38" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Z38" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA38" s="15" t="s">
-        <v>129</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AA38" s="15"/>
       <c r="AB38" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AC38" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AD38" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AE38" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AF38" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AG38" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AH38" s="15" t="str">
         <f t="shared" si="38"/>
@@ -8769,7 +8807,7 @@
         <v/>
       </c>
       <c r="AN38" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AO38" s="15" t="str">
         <f t="shared" si="39"/>
@@ -8834,16 +8872,24 @@
         <v>72</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="E39" s="25"/>
       <c r="F39" s="26">
         <v>36</v>
       </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
+      <c r="G39" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="K39" s="15" t="str">
         <f t="shared" ref="K39:AO39" si="40">IF(K192="", "", CONCATENATE("d", K192))</f>
         <v/>
@@ -8853,20 +8899,20 @@
         <v/>
       </c>
       <c r="M39" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O39" s="15" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P39" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q39" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R39" s="15" t="str">
         <f t="shared" si="38"/>
@@ -8897,31 +8943,29 @@
         <v/>
       </c>
       <c r="Y39" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Z39" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA39" s="15" t="s">
-        <v>129</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AA39" s="15"/>
       <c r="AB39" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AC39" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AD39" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AE39" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AF39" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AG39" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AH39" s="15" t="str">
         <f t="shared" si="38"/>
@@ -8948,7 +8992,7 @@
         <v/>
       </c>
       <c r="AN39" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AO39" s="15" t="str">
         <f t="shared" si="40"/>
@@ -9013,16 +9057,24 @@
         <v>70</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="26">
         <v>37</v>
       </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
+      <c r="G40" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="K40" s="15" t="str">
         <f t="shared" ref="K40:AO40" si="41">IF(K193="", "", CONCATENATE("d", K193))</f>
         <v/>
@@ -9032,20 +9084,20 @@
         <v/>
       </c>
       <c r="M40" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O40" s="15" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P40" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q40" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R40" s="15" t="str">
         <f t="shared" si="38"/>
@@ -9076,31 +9128,29 @@
         <v/>
       </c>
       <c r="Y40" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Z40" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA40" s="15" t="s">
-        <v>129</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AA40" s="15"/>
       <c r="AB40" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AC40" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AD40" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AE40" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AF40" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AG40" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AH40" s="15" t="str">
         <f t="shared" si="38"/>
@@ -9127,7 +9177,7 @@
         <v/>
       </c>
       <c r="AN40" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AO40" s="15" t="str">
         <f t="shared" si="41"/>
@@ -9192,16 +9242,24 @@
         <v>75</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E41" s="25"/>
       <c r="F41" s="26">
         <v>38</v>
       </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
+      <c r="G41" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="K41" s="15" t="str">
         <f t="shared" ref="K41:AO41" si="42">IF(K194="", "", CONCATENATE("d", K194))</f>
         <v/>
@@ -9211,20 +9269,20 @@
         <v/>
       </c>
       <c r="M41" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O41" s="15" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P41" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q41" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R41" s="15" t="str">
         <f t="shared" si="38"/>
@@ -9255,31 +9313,29 @@
         <v/>
       </c>
       <c r="Y41" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Z41" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA41" s="15" t="s">
-        <v>129</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AA41" s="15"/>
       <c r="AB41" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AC41" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AD41" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AE41" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AF41" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AG41" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AH41" s="15" t="str">
         <f t="shared" si="38"/>
@@ -9306,7 +9362,7 @@
         <v/>
       </c>
       <c r="AN41" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AO41" s="15" t="str">
         <f t="shared" si="42"/>
@@ -9373,10 +9429,18 @@
       <c r="F42" s="26">
         <v>39</v>
       </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
+      <c r="G42" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="K42" s="15" t="str">
         <f t="shared" ref="K42:AO42" si="43">IF(K195="", "", CONCATENATE("d", K195))</f>
         <v/>
@@ -9386,20 +9450,20 @@
         <v/>
       </c>
       <c r="M42" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O42" s="15" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P42" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q42" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R42" s="15" t="str">
         <f t="shared" si="38"/>
@@ -9430,31 +9494,29 @@
         <v/>
       </c>
       <c r="Y42" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Z42" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA42" s="15" t="s">
-        <v>129</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AA42" s="15"/>
       <c r="AB42" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AC42" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AD42" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AE42" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AF42" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AG42" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AH42" s="15" t="str">
         <f t="shared" si="38"/>
@@ -9481,7 +9543,7 @@
         <v/>
       </c>
       <c r="AN42" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AO42" s="15" t="str">
         <f t="shared" si="43"/>
@@ -10343,10 +10405,10 @@
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
       <c r="K47" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L47" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M47" s="15"/>
       <c r="N47" s="15" t="str">
@@ -10354,36 +10416,36 @@
         <v/>
       </c>
       <c r="O47" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P47" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q47" s="15" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="R47" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="S47" s="15" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="T47" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="U47" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="W47" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="X47" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Y47" s="15" t="str">
         <f t="shared" si="48"/>
@@ -10394,7 +10456,7 @@
         <v/>
       </c>
       <c r="AA47" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AB47" s="15" t="str">
         <f t="shared" si="48"/>
@@ -10405,7 +10467,7 @@
         <v/>
       </c>
       <c r="AD47" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AE47" s="15" t="str">
         <f t="shared" si="48"/>
@@ -10420,29 +10482,29 @@
         <v/>
       </c>
       <c r="AH47" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AI47" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AJ47" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AK47" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AL47" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AM47" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AN47" s="15" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO47" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AP47" s="32"/>
       <c r="AQ47" s="18"/>
@@ -10687,7 +10749,7 @@
         <v/>
       </c>
       <c r="M49" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N49" s="15" t="str">
         <f t="shared" si="50"/>
@@ -10861,10 +10923,10 @@
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
       <c r="K50" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L50" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M50" s="15" t="str">
         <f t="shared" ref="M50:AN50" si="51">IF(M203="", "", CONCATENATE("d", M203))</f>
@@ -10875,35 +10937,35 @@
         <v/>
       </c>
       <c r="O50" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P50" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q50" s="15" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="R50" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="T50" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="U50" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="W50" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="X50" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Y50" s="15" t="str">
         <f t="shared" si="51"/>
@@ -10914,7 +10976,7 @@
         <v/>
       </c>
       <c r="AA50" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AB50" s="15" t="str">
         <f t="shared" si="51"/>
@@ -10925,7 +10987,7 @@
         <v/>
       </c>
       <c r="AD50" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AE50" s="15" t="str">
         <f t="shared" si="51"/>
@@ -10940,29 +11002,29 @@
         <v/>
       </c>
       <c r="AH50" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AI50" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AJ50" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AK50" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AL50" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AM50" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AN50" s="15" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AO50" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AP50" s="32"/>
       <c r="AQ50" s="18"/>
@@ -11428,7 +11490,7 @@
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
       <c r="M53" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AP53" s="32"/>
       <c r="AQ53" s="18"/>
@@ -12230,7 +12292,7 @@
         <v/>
       </c>
       <c r="M58" s="15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N58" s="15" t="str">
         <f t="shared" si="58"/>
@@ -12245,7 +12307,7 @@
         <v/>
       </c>
       <c r="Q58" s="15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="R58" s="15" t="str">
         <f t="shared" si="58"/>
@@ -12336,7 +12398,7 @@
         <v/>
       </c>
       <c r="AN58" s="15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AO58" s="15" t="str">
         <f t="shared" si="58"/>
@@ -12607,10 +12669,10 @@
         <v/>
       </c>
       <c r="M60" s="15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="N60" s="15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O60" s="15" t="str">
         <f t="shared" si="60"/>
@@ -12621,7 +12683,7 @@
         <v/>
       </c>
       <c r="Q60" s="15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="R60" s="15" t="str">
         <f t="shared" si="60"/>
@@ -12712,7 +12774,7 @@
         <v/>
       </c>
       <c r="AN60" s="15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AO60" s="15" t="str">
         <f t="shared" si="60"/>
@@ -12977,10 +13039,10 @@
         <v/>
       </c>
       <c r="M62" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N62" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O62" s="15" t="str">
         <f t="shared" si="62"/>
@@ -12991,7 +13053,7 @@
         <v/>
       </c>
       <c r="Q62" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R62" s="15" t="str">
         <f t="shared" si="62"/>
@@ -13022,7 +13084,7 @@
         <v/>
       </c>
       <c r="Y62" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="Z62" s="15" t="str">
         <f t="shared" si="62"/>
@@ -13081,7 +13143,7 @@
         <v/>
       </c>
       <c r="AN62" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AO62" s="15" t="str">
         <f t="shared" si="62"/>
@@ -13344,10 +13406,10 @@
         <v/>
       </c>
       <c r="M64" s="15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="N64" s="15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="O64" s="15" t="str">
         <f t="shared" si="64"/>
@@ -13358,7 +13420,7 @@
         <v/>
       </c>
       <c r="Q64" s="15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R64" s="15" t="str">
         <f t="shared" si="64"/>
@@ -13389,10 +13451,10 @@
         <v/>
       </c>
       <c r="Y64" s="15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Z64" s="15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AA64" s="15" t="str">
         <f t="shared" si="64"/>
@@ -13447,7 +13509,7 @@
         <v/>
       </c>
       <c r="AN64" s="15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AO64" s="15" t="str">
         <f t="shared" si="64"/>
@@ -13856,8 +13918,12 @@
       <c r="F67" s="26">
         <v>64</v>
       </c>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
+      <c r="G67" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="I67" s="15"/>
       <c r="J67" s="15"/>
       <c r="K67" s="15" t="str">
@@ -13869,10 +13935,10 @@
         <v/>
       </c>
       <c r="M67" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N67" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O67" s="15" t="str">
         <f t="shared" si="67"/>
@@ -13883,7 +13949,7 @@
         <v/>
       </c>
       <c r="Q67" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="R67" s="15" t="str">
         <f t="shared" si="67"/>
@@ -13914,14 +13980,12 @@
         <v/>
       </c>
       <c r="Y67" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Z67" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA67" s="15" t="s">
-        <v>138</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AA67" s="15"/>
       <c r="AB67" s="15" t="str">
         <f t="shared" si="67"/>
         <v/>
@@ -13971,7 +14035,7 @@
         <v/>
       </c>
       <c r="AN67" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AO67" s="15" t="str">
         <f t="shared" si="67"/>
@@ -14236,7 +14300,7 @@
         <v/>
       </c>
       <c r="P69" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q69" s="15" t="str">
         <f t="shared" si="69"/>
@@ -14279,7 +14343,7 @@
         <v/>
       </c>
       <c r="AA69" s="15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AB69" s="15" t="str">
         <f t="shared" si="69"/>
@@ -14290,7 +14354,7 @@
         <v/>
       </c>
       <c r="AD69" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AE69" s="15" t="str">
         <f t="shared" si="69"/>
@@ -14305,22 +14369,22 @@
         <v/>
       </c>
       <c r="AH69" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AI69" s="15" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AJ69" s="15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AK69" s="15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AL69" s="15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AM69" s="15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AN69" s="15" t="str">
         <f t="shared" si="69"/>
@@ -14391,10 +14455,18 @@
       <c r="F70" s="26">
         <v>67</v>
       </c>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
+      <c r="G70" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J70" s="15" t="s">
+        <v>134</v>
+      </c>
       <c r="K70" s="15" t="str">
         <f t="shared" ref="K70:AO70" si="70">IF(K223="", "", CONCATENATE("d", K223))</f>
         <v/>
@@ -14404,10 +14476,10 @@
         <v/>
       </c>
       <c r="M70" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N70" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="O70" s="15" t="str">
         <f t="shared" si="70"/>
@@ -14418,7 +14490,7 @@
         <v/>
       </c>
       <c r="Q70" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="R70" s="15" t="str">
         <f t="shared" si="70"/>
@@ -14449,19 +14521,17 @@
         <v/>
       </c>
       <c r="Y70" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Z70" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA70" s="15" t="s">
-        <v>139</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AA70" s="15"/>
       <c r="AB70" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AC70" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AD70" s="15" t="str">
         <f t="shared" si="70"/>
@@ -14504,7 +14574,7 @@
         <v/>
       </c>
       <c r="AN70" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AO70" s="15" t="str">
         <f t="shared" si="70"/>
@@ -14935,10 +15005,18 @@
       <c r="F73" s="26">
         <v>70</v>
       </c>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
+      <c r="G73" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J73" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="K73" s="15" t="str">
         <f t="shared" ref="K73:AO73" si="73">IF(K226="", "", CONCATENATE("d", K226))</f>
         <v/>
@@ -14948,10 +15026,10 @@
         <v/>
       </c>
       <c r="M73" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N73" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O73" s="15" t="str">
         <f t="shared" si="73"/>
@@ -14962,7 +15040,7 @@
         <v/>
       </c>
       <c r="Q73" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="R73" s="15" t="str">
         <f t="shared" si="73"/>
@@ -14993,25 +15071,23 @@
         <v/>
       </c>
       <c r="Y73" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Z73" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA73" s="15" t="s">
-        <v>140</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AA73" s="15"/>
       <c r="AB73" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AC73" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AD73" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AE73" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AF73" s="15" t="str">
         <f t="shared" si="73"/>
@@ -15046,7 +15122,7 @@
         <v/>
       </c>
       <c r="AN73" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AO73" s="15" t="str">
         <f t="shared" si="73"/>
@@ -15473,10 +15549,18 @@
       <c r="F76" s="26">
         <v>73</v>
       </c>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
+      <c r="G76" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I76" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J76" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="K76" s="15" t="str">
         <f t="shared" ref="K76:AO77" si="76">IF(K229="", "", CONCATENATE("d", K229))</f>
         <v/>
@@ -15486,10 +15570,10 @@
         <v/>
       </c>
       <c r="M76" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N76" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="O76" s="15" t="str">
         <f t="shared" si="76"/>
@@ -15500,7 +15584,7 @@
         <v/>
       </c>
       <c r="Q76" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R76" s="15" t="str">
         <f t="shared" si="76"/>
@@ -15531,31 +15615,29 @@
         <v/>
       </c>
       <c r="Y76" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Z76" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA76" s="15" t="s">
-        <v>127</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="AA76" s="15"/>
       <c r="AB76" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AC76" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AD76" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AE76" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AF76" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AG76" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AH76" s="15" t="str">
         <f t="shared" si="76"/>
@@ -15582,7 +15664,7 @@
         <v/>
       </c>
       <c r="AN76" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AO76" s="15" t="str">
         <f t="shared" si="76"/>
@@ -15641,10 +15723,18 @@
       <c r="F77" s="26">
         <v>74</v>
       </c>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
+      <c r="G77" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I77" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J77" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="K77" s="15" t="str">
         <f t="shared" ref="K77:AO77" si="77">IF(K230="", "", CONCATENATE("d", K230))</f>
         <v/>
@@ -15654,10 +15744,10 @@
         <v/>
       </c>
       <c r="M77" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N77" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="O77" s="15" t="str">
         <f t="shared" si="76"/>
@@ -15668,7 +15758,7 @@
         <v/>
       </c>
       <c r="Q77" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R77" s="15" t="str">
         <f t="shared" si="76"/>
@@ -15699,31 +15789,29 @@
         <v/>
       </c>
       <c r="Y77" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Z77" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA77" s="15" t="s">
-        <v>127</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="AA77" s="15"/>
       <c r="AB77" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AC77" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AD77" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AE77" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AF77" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AG77" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AH77" s="15" t="str">
         <f t="shared" si="76"/>
@@ -15750,7 +15838,7 @@
         <v/>
       </c>
       <c r="AN77" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AO77" s="15" t="str">
         <f t="shared" si="77"/>
@@ -15809,10 +15897,18 @@
       <c r="F78" s="26">
         <v>75</v>
       </c>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
+      <c r="G78" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I78" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J78" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="K78" s="15" t="str">
         <f t="shared" ref="K78:AO78" si="78">IF(K231="", "", CONCATENATE("d", K231))</f>
         <v/>
@@ -15822,10 +15918,10 @@
         <v/>
       </c>
       <c r="M78" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N78" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O78" s="15" t="str">
         <f t="shared" si="78"/>
@@ -15836,7 +15932,7 @@
         <v/>
       </c>
       <c r="Q78" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R78" s="15" t="str">
         <f t="shared" si="78"/>
@@ -15867,31 +15963,29 @@
         <v/>
       </c>
       <c r="Y78" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Z78" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA78" s="15" t="s">
-        <v>126</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="AA78" s="15"/>
       <c r="AB78" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AC78" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AD78" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AE78" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AF78" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AG78" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AH78" s="15" t="str">
         <f t="shared" si="78"/>
@@ -15918,7 +16012,7 @@
         <v/>
       </c>
       <c r="AN78" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AO78" s="15" t="str">
         <f t="shared" si="78"/>
@@ -16004,7 +16098,7 @@
         <v>d40</v>
       </c>
       <c r="Q79" s="15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="R79" s="15" t="str">
         <f t="shared" si="79"/>
@@ -16387,7 +16481,7 @@
         <v/>
       </c>
       <c r="Q81" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="R81" s="15" t="str">
         <f t="shared" si="81"/>
@@ -17138,7 +17232,7 @@
         <v/>
       </c>
       <c r="M85" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="N85" s="15" t="str">
         <f t="shared" si="85"/>
@@ -17149,7 +17243,7 @@
         <v/>
       </c>
       <c r="P85" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="Q85" s="15" t="str">
         <f t="shared" si="85"/>
@@ -17192,7 +17286,7 @@
         <v/>
       </c>
       <c r="AA85" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AB85" s="15" t="str">
         <f t="shared" si="85"/>
@@ -17203,7 +17297,7 @@
         <v/>
       </c>
       <c r="AD85" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AE85" s="15" t="str">
         <f t="shared" si="85"/>
@@ -17218,22 +17312,22 @@
         <v/>
       </c>
       <c r="AH85" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AI85" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AJ85" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AK85" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AL85" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AM85" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AN85" s="15" t="str">
         <f t="shared" si="85"/>
@@ -17309,7 +17403,7 @@
         <v/>
       </c>
       <c r="M86" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="N86" s="15" t="str">
         <f t="shared" si="85"/>
@@ -17320,7 +17414,7 @@
         <v/>
       </c>
       <c r="P86" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="Q86" s="15" t="str">
         <f t="shared" si="85"/>
@@ -17363,7 +17457,7 @@
         <v/>
       </c>
       <c r="AA86" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AB86" s="15" t="str">
         <f t="shared" si="85"/>
@@ -17374,7 +17468,7 @@
         <v/>
       </c>
       <c r="AD86" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AE86" s="15" t="str">
         <f t="shared" si="85"/>
@@ -17389,22 +17483,22 @@
         <v/>
       </c>
       <c r="AH86" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AI86" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AJ86" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AK86" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AL86" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AM86" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AN86" s="15" t="str">
         <f t="shared" si="86"/>
@@ -17480,7 +17574,7 @@
         <v/>
       </c>
       <c r="M87" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="N87" s="15" t="str">
         <f t="shared" si="85"/>
@@ -17491,7 +17585,7 @@
         <v/>
       </c>
       <c r="P87" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="Q87" s="15" t="str">
         <f t="shared" si="85"/>
@@ -17534,7 +17628,7 @@
         <v/>
       </c>
       <c r="AA87" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AB87" s="15" t="str">
         <f t="shared" si="85"/>
@@ -17545,7 +17639,7 @@
         <v/>
       </c>
       <c r="AD87" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AE87" s="15" t="str">
         <f t="shared" si="85"/>
@@ -17560,22 +17654,22 @@
         <v/>
       </c>
       <c r="AH87" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AI87" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AJ87" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AK87" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AL87" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AM87" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AN87" s="15" t="str">
         <f t="shared" si="87"/>
@@ -17822,10 +17916,10 @@
       <c r="I89" s="15"/>
       <c r="J89" s="15"/>
       <c r="K89" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L89" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M89" s="15" t="str">
         <f t="shared" ref="M89:AN91" si="89">IF(M242="", "", CONCATENATE("d", M242))</f>
@@ -17836,35 +17930,35 @@
         <v/>
       </c>
       <c r="O89" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P89" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="Q89" s="15" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="R89" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="S89" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="T89" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="U89" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="V89" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W89" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="X89" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="Y89" s="15" t="str">
         <f t="shared" si="89"/>
@@ -17875,7 +17969,7 @@
         <v/>
       </c>
       <c r="AA89" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AB89" s="15" t="str">
         <f t="shared" si="89"/>
@@ -17886,7 +17980,7 @@
         <v/>
       </c>
       <c r="AD89" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AE89" s="15" t="str">
         <f t="shared" si="89"/>
@@ -17901,29 +17995,29 @@
         <v/>
       </c>
       <c r="AH89" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AI89" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AJ89" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK89" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AL89" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AM89" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AN89" s="15" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AO89" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AP89" s="32"/>
       <c r="AQ89" s="18"/>
@@ -18160,10 +18254,10 @@
       <c r="I91" s="15"/>
       <c r="J91" s="15"/>
       <c r="K91" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L91" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M91" s="15" t="str">
         <f t="shared" si="89"/>
@@ -18174,35 +18268,35 @@
         <v/>
       </c>
       <c r="O91" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P91" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Q91" s="15" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="R91" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="S91" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="T91" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="U91" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="V91" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="W91" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="X91" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Y91" s="15" t="str">
         <f t="shared" si="89"/>
@@ -18213,7 +18307,7 @@
         <v/>
       </c>
       <c r="AA91" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AB91" s="15" t="str">
         <f t="shared" si="89"/>
@@ -18224,7 +18318,7 @@
         <v/>
       </c>
       <c r="AD91" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AE91" s="15" t="str">
         <f t="shared" si="89"/>
@@ -18239,29 +18333,29 @@
         <v/>
       </c>
       <c r="AH91" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AI91" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AJ91" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AK91" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AL91" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AM91" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AN91" s="15" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="AO91" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AP91" s="32"/>
       <c r="AQ91" s="18"/>
@@ -19420,8 +19514,12 @@
       <c r="F98" s="26">
         <v>95</v>
       </c>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
+      <c r="G98" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="I98" s="15"/>
       <c r="J98" s="15"/>
       <c r="K98" s="15" t="str">
@@ -19433,10 +19531,10 @@
         <v/>
       </c>
       <c r="M98" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N98" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O98" s="15" t="str">
         <f t="shared" si="97"/>
@@ -19447,7 +19545,7 @@
         <v/>
       </c>
       <c r="Q98" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R98" s="15" t="str">
         <f t="shared" si="97"/>
@@ -19478,14 +19576,12 @@
         <v/>
       </c>
       <c r="Y98" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Z98" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA98" s="15" t="s">
-        <v>123</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="AA98" s="15"/>
       <c r="AB98" s="15" t="str">
         <f t="shared" si="97"/>
         <v>d65</v>
@@ -19535,7 +19631,7 @@
         <v/>
       </c>
       <c r="AN98" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AO98" s="15" t="str">
         <f t="shared" si="97"/>
@@ -19785,8 +19881,12 @@
       <c r="F100" s="26">
         <v>97</v>
       </c>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
+      <c r="G100" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H100" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="I100" s="15"/>
       <c r="J100" s="15"/>
       <c r="K100" s="15" t="str">
@@ -19798,10 +19898,10 @@
         <v/>
       </c>
       <c r="M100" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N100" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O100" s="15" t="str">
         <f t="shared" si="97"/>
@@ -19812,7 +19912,7 @@
         <v/>
       </c>
       <c r="Q100" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R100" s="15" t="str">
         <f t="shared" si="97"/>
@@ -19843,14 +19943,12 @@
         <v/>
       </c>
       <c r="Y100" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Z100" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA100" s="15" t="s">
-        <v>123</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="AA100" s="15"/>
       <c r="AB100" s="15" t="str">
         <f t="shared" si="97"/>
         <v>d65</v>
@@ -19900,7 +19998,7 @@
         <v/>
       </c>
       <c r="AN100" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AO100" s="15" t="str">
         <f t="shared" si="99"/>
@@ -19961,10 +20059,18 @@
       <c r="F101" s="26">
         <v>98</v>
       </c>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="15"/>
+      <c r="G101" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H101" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I101" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J101" s="15" t="s">
+        <v>119</v>
+      </c>
       <c r="K101" s="15" t="str">
         <f t="shared" ref="K101:AO102" si="100">IF(K254="", "", CONCATENATE("d", K254))</f>
         <v/>
@@ -19974,10 +20080,10 @@
         <v/>
       </c>
       <c r="M101" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N101" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="O101" s="15" t="str">
         <f t="shared" si="100"/>
@@ -19988,7 +20094,7 @@
         <v/>
       </c>
       <c r="Q101" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R101" s="15" t="str">
         <f t="shared" si="100"/>
@@ -20019,19 +20125,17 @@
         <v/>
       </c>
       <c r="Y101" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Z101" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA101" s="15" t="s">
-        <v>124</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="AA101" s="15"/>
       <c r="AB101" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AC101" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AD101" s="15" t="str">
         <f t="shared" si="100"/>
@@ -20074,7 +20178,7 @@
         <v/>
       </c>
       <c r="AN101" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AO101" s="15" t="str">
         <f t="shared" si="100"/>
@@ -20135,10 +20239,18 @@
       <c r="F102" s="26">
         <v>99</v>
       </c>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
+      <c r="G102" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H102" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I102" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J102" s="15" t="s">
+        <v>119</v>
+      </c>
       <c r="K102" s="15" t="str">
         <f t="shared" ref="K102:AO102" si="101">IF(K255="", "", CONCATENATE("d", K255))</f>
         <v/>
@@ -20148,10 +20260,10 @@
         <v/>
       </c>
       <c r="M102" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N102" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="O102" s="15" t="str">
         <f t="shared" si="100"/>
@@ -20162,7 +20274,7 @@
         <v/>
       </c>
       <c r="Q102" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R102" s="15" t="str">
         <f t="shared" si="100"/>
@@ -20193,19 +20305,17 @@
         <v/>
       </c>
       <c r="Y102" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Z102" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA102" s="15" t="s">
-        <v>124</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="AA102" s="15"/>
       <c r="AB102" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AC102" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AD102" s="15" t="str">
         <f t="shared" si="100"/>
@@ -20248,7 +20358,7 @@
         <v/>
       </c>
       <c r="AN102" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AO102" s="15" t="str">
         <f t="shared" si="101"/>
@@ -20309,10 +20419,18 @@
       <c r="F103" s="26">
         <v>100</v>
       </c>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="15"/>
+      <c r="G103" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I103" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J103" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="K103" s="15" t="str">
         <f t="shared" ref="K103:AO104" si="102">IF(K256="", "", CONCATENATE("d", K256))</f>
         <v/>
@@ -20322,10 +20440,10 @@
         <v/>
       </c>
       <c r="M103" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N103" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O103" s="15" t="str">
         <f t="shared" si="102"/>
@@ -20336,7 +20454,7 @@
         <v/>
       </c>
       <c r="Q103" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R103" s="15" t="str">
         <f t="shared" si="102"/>
@@ -20367,25 +20485,23 @@
         <v/>
       </c>
       <c r="Y103" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Z103" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA103" s="15" t="s">
-        <v>125</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="AA103" s="15"/>
       <c r="AB103" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AC103" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AD103" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AE103" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AF103" s="15" t="str">
         <f t="shared" si="102"/>
@@ -20420,7 +20536,7 @@
         <v/>
       </c>
       <c r="AN103" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AO103" s="15" t="str">
         <f t="shared" si="102"/>
@@ -20481,10 +20597,18 @@
       <c r="F104" s="26">
         <v>101</v>
       </c>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="15"/>
+      <c r="G104" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H104" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I104" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J104" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="K104" s="15" t="str">
         <f t="shared" ref="K104:L104" si="103">IF(K257="", "", CONCATENATE("d", K257))</f>
         <v/>
@@ -20494,10 +20618,10 @@
         <v/>
       </c>
       <c r="M104" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N104" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O104" s="15" t="str">
         <f t="shared" si="102"/>
@@ -20508,7 +20632,7 @@
         <v/>
       </c>
       <c r="Q104" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R104" s="15" t="str">
         <f t="shared" si="102"/>
@@ -20539,25 +20663,23 @@
         <v/>
       </c>
       <c r="Y104" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Z104" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA104" s="15" t="s">
-        <v>125</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="AA104" s="15"/>
       <c r="AB104" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AC104" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AD104" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AE104" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AF104" s="15" t="str">
         <f t="shared" si="102"/>
@@ -20592,7 +20714,7 @@
         <v/>
       </c>
       <c r="AN104" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AO104" s="15" t="str">
         <f>IF(AO257="", "", CONCATENATE("d", AO257))</f>
@@ -20861,7 +20983,7 @@
         <v/>
       </c>
       <c r="Q106" s="15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="R106" s="15" t="str">
         <f t="shared" si="105"/>
@@ -21014,10 +21136,18 @@
       <c r="F107" s="26">
         <v>104</v>
       </c>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="15"/>
+      <c r="G107" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I107" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J107" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="K107" s="15" t="str">
         <f t="shared" ref="K107:AO107" si="106">IF(K260="", "", CONCATENATE("d", K260))</f>
         <v/>
@@ -21027,20 +21157,20 @@
         <v/>
       </c>
       <c r="M107" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N107" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O107" s="15" t="str">
         <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="P107" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q107" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R107" s="15" t="str">
         <f t="shared" si="106"/>
@@ -21071,31 +21201,29 @@
         <v/>
       </c>
       <c r="Y107" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Z107" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA107" s="15" t="s">
-        <v>129</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AA107" s="15"/>
       <c r="AB107" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AC107" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AD107" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AE107" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AF107" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AG107" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AH107" s="15" t="str">
         <f t="shared" si="106"/>
@@ -21122,7 +21250,7 @@
         <v/>
       </c>
       <c r="AN107" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AO107" s="15" t="str">
         <f t="shared" si="106"/>
@@ -21389,7 +21517,7 @@
         <v/>
       </c>
       <c r="Q109" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="R109" s="15" t="str">
         <f t="shared" si="108"/>
@@ -21569,7 +21697,7 @@
         <v/>
       </c>
       <c r="Q110" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="R110" s="15" t="str">
         <f t="shared" si="109"/>
@@ -21727,50 +21855,49 @@
       <c r="I111" s="15"/>
       <c r="J111" s="15"/>
       <c r="K111" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L111" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="M111" s="15" t="str">
-        <f t="shared" ref="M111:AG111" si="110">IF(M264="", "", CONCATENATE("d", M264))</f>
-        <v/>
+        <v>143</v>
+      </c>
+      <c r="M111" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="N111" s="15" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" ref="M111:AG111" si="110">IF(N264="", "", CONCATENATE("d", N264))</f>
         <v/>
       </c>
       <c r="O111" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P111" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Q111" s="15" t="str">
         <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="R111" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="S111" s="15" t="str">
         <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="T111" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="U111" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="V111" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="W111" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="X111" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Y111" s="15" t="str">
         <f t="shared" si="110"/>
@@ -21781,7 +21908,7 @@
         <v/>
       </c>
       <c r="AA111" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AB111" s="15" t="str">
         <f t="shared" si="110"/>
@@ -21792,7 +21919,7 @@
         <v/>
       </c>
       <c r="AD111" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AE111" s="15" t="str">
         <f t="shared" si="110"/>
@@ -21807,26 +21934,26 @@
         <v/>
       </c>
       <c r="AH111" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AI111" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AJ111" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK111" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AL111" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AM111" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AN111" s="15"/>
       <c r="AO111" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AP111" s="32"/>
       <c r="AQ111" s="18"/>
@@ -21892,7 +22019,7 @@
         <v/>
       </c>
       <c r="M112" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N112" s="15" t="str">
         <f t="shared" si="111"/>
@@ -22088,7 +22215,7 @@
         <v>d40</v>
       </c>
       <c r="Q113" s="15" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="R113" s="15" t="str">
         <f t="shared" si="112"/>
@@ -22467,10 +22594,10 @@
         <v/>
       </c>
       <c r="P115" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q115" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="R115" s="15" t="str">
         <f t="shared" si="114"/>
@@ -22509,7 +22636,7 @@
         <v/>
       </c>
       <c r="AA115" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AB115" s="15" t="str">
         <f t="shared" si="114"/>
@@ -22520,7 +22647,7 @@
         <v/>
       </c>
       <c r="AD115" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AE115" s="15" t="str">
         <f t="shared" si="114"/>
@@ -22535,22 +22662,22 @@
         <v/>
       </c>
       <c r="AH115" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AI115" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AJ115" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AK115" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AL115" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AM115" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AN115" s="15" t="str">
         <f t="shared" si="114"/>
@@ -23401,10 +23528,10 @@
         <v>117</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H120" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I120" s="15"/>
       <c r="J120" s="15"/>
@@ -23579,10 +23706,10 @@
         <v>118</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
@@ -23756,13 +23883,17 @@
       <c r="F122" s="26">
         <v>119</v>
       </c>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
+      <c r="G122" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H122" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="I122" s="15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J122" s="15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K122" s="15" t="str">
         <f t="shared" ref="K122:AO122" si="121">IF(K275="", "", CONCATENATE("d", K275))</f>
@@ -23773,10 +23904,10 @@
         <v/>
       </c>
       <c r="M122" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N122" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O122" s="15" t="str">
         <f t="shared" si="121"/>
@@ -23787,7 +23918,7 @@
         <v/>
       </c>
       <c r="Q122" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R122" s="15" t="str">
         <f t="shared" si="121"/>
@@ -23818,14 +23949,12 @@
         <v/>
       </c>
       <c r="Y122" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Z122" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA122" s="15" t="s">
-        <v>123</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="AA122" s="15"/>
       <c r="AB122" s="15" t="str">
         <f t="shared" si="121"/>
         <v>d65</v>
@@ -23875,7 +24004,7 @@
         <v/>
       </c>
       <c r="AN122" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AO122" s="15" t="str">
         <f t="shared" si="121"/>
@@ -23936,8 +24065,12 @@
       <c r="F123" s="26">
         <v>120</v>
       </c>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
+      <c r="G123" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H123" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="I123" s="15"/>
       <c r="J123" s="15"/>
       <c r="K123" s="15" t="str">
@@ -23949,10 +24082,10 @@
         <v/>
       </c>
       <c r="M123" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N123" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O123" s="15" t="str">
         <f t="shared" si="122"/>
@@ -23963,7 +24096,7 @@
         <v/>
       </c>
       <c r="Q123" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R123" s="15" t="str">
         <f t="shared" si="122"/>
@@ -23994,14 +24127,12 @@
         <v/>
       </c>
       <c r="Y123" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Z123" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA123" s="15" t="s">
-        <v>123</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="AA123" s="15"/>
       <c r="AB123" s="15" t="str">
         <f t="shared" si="122"/>
         <v/>
@@ -24051,7 +24182,7 @@
         <v/>
       </c>
       <c r="AN123" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AO123" s="15" t="str">
         <f t="shared" si="122"/>
@@ -24110,13 +24241,17 @@
       <c r="F124" s="26">
         <v>121</v>
       </c>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
+      <c r="G124" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H124" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="I124" s="15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J124" s="15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K124" s="15" t="str">
         <f t="shared" ref="K124:AO124" si="123">IF(K277="", "", CONCATENATE("d", K277))</f>
@@ -24127,10 +24262,10 @@
         <v/>
       </c>
       <c r="M124" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N124" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O124" s="15" t="str">
         <f t="shared" si="123"/>
@@ -24141,7 +24276,7 @@
         <v/>
       </c>
       <c r="Q124" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R124" s="15" t="str">
         <f t="shared" si="123"/>
@@ -24172,14 +24307,12 @@
         <v/>
       </c>
       <c r="Y124" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Z124" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA124" s="15" t="s">
-        <v>123</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="AA124" s="15"/>
       <c r="AB124" s="15" t="str">
         <f t="shared" si="123"/>
         <v>d65</v>
@@ -24229,7 +24362,7 @@
         <v/>
       </c>
       <c r="AN124" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AO124" s="15" t="str">
         <f t="shared" si="123"/>
@@ -24290,8 +24423,12 @@
       <c r="F125" s="26">
         <v>122</v>
       </c>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
+      <c r="G125" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H125" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="I125" s="15"/>
       <c r="J125" s="15"/>
       <c r="K125" s="15" t="str">
@@ -24303,10 +24440,10 @@
         <v/>
       </c>
       <c r="M125" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N125" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O125" s="15" t="str">
         <f t="shared" si="124"/>
@@ -24317,7 +24454,7 @@
         <v/>
       </c>
       <c r="Q125" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R125" s="15" t="str">
         <f t="shared" si="124"/>
@@ -24348,14 +24485,12 @@
         <v/>
       </c>
       <c r="Y125" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Z125" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA125" s="15" t="s">
-        <v>123</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="AA125" s="15"/>
       <c r="AB125" s="15" t="str">
         <f t="shared" si="124"/>
         <v/>
@@ -24405,7 +24540,7 @@
         <v/>
       </c>
       <c r="AN125" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AO125" s="15" t="str">
         <f t="shared" si="124"/>
@@ -24464,10 +24599,18 @@
       <c r="F126" s="26">
         <v>123</v>
       </c>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="15"/>
+      <c r="G126" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H126" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I126" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J126" s="15" t="s">
+        <v>119</v>
+      </c>
       <c r="K126" s="15" t="str">
         <f t="shared" ref="K126:AO126" si="125">IF(K279="", "", CONCATENATE("d", K279))</f>
         <v/>
@@ -24477,10 +24620,10 @@
         <v/>
       </c>
       <c r="M126" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N126" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="O126" s="15" t="str">
         <f t="shared" si="125"/>
@@ -24491,7 +24634,7 @@
         <v/>
       </c>
       <c r="Q126" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R126" s="15" t="str">
         <f t="shared" si="125"/>
@@ -24522,19 +24665,17 @@
         <v/>
       </c>
       <c r="Y126" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Z126" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA126" s="15" t="s">
-        <v>124</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="AA126" s="15"/>
       <c r="AB126" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AC126" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AD126" s="15" t="str">
         <f t="shared" si="125"/>
@@ -24577,7 +24718,7 @@
         <v/>
       </c>
       <c r="AN126" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AO126" s="15" t="str">
         <f t="shared" si="125"/>
@@ -24636,10 +24777,18 @@
       <c r="F127" s="26">
         <v>124</v>
       </c>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="15"/>
+      <c r="G127" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H127" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I127" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J127" s="15" t="s">
+        <v>119</v>
+      </c>
       <c r="K127" s="15" t="str">
         <f t="shared" ref="K127:AO127" si="126">IF(K280="", "", CONCATENATE("d", K280))</f>
         <v/>
@@ -24649,10 +24798,10 @@
         <v/>
       </c>
       <c r="M127" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N127" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="O127" s="15" t="str">
         <f t="shared" si="126"/>
@@ -24663,7 +24812,7 @@
         <v/>
       </c>
       <c r="Q127" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R127" s="15" t="str">
         <f t="shared" si="126"/>
@@ -24694,19 +24843,17 @@
         <v/>
       </c>
       <c r="Y127" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Z127" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA127" s="15" t="s">
-        <v>124</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="AA127" s="15"/>
       <c r="AB127" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AC127" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AD127" s="15" t="str">
         <f t="shared" si="126"/>
@@ -24749,7 +24896,7 @@
         <v/>
       </c>
       <c r="AN127" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AO127" s="15" t="str">
         <f t="shared" si="126"/>
@@ -24808,10 +24955,18 @@
       <c r="F128" s="26">
         <v>125</v>
       </c>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="15"/>
+      <c r="G128" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H128" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I128" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J128" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="K128" s="15" t="str">
         <f t="shared" ref="K128:AO128" si="127">IF(K281="", "", CONCATENATE("d", K281))</f>
         <v/>
@@ -24821,10 +24976,10 @@
         <v/>
       </c>
       <c r="M128" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N128" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O128" s="15" t="str">
         <f t="shared" si="127"/>
@@ -24835,7 +24990,7 @@
         <v/>
       </c>
       <c r="Q128" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R128" s="15" t="str">
         <f t="shared" si="127"/>
@@ -24866,25 +25021,23 @@
         <v/>
       </c>
       <c r="Y128" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Z128" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA128" s="15" t="s">
-        <v>125</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="AA128" s="15"/>
       <c r="AB128" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AC128" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AD128" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AE128" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AF128" s="15" t="str">
         <f t="shared" si="127"/>
@@ -24919,7 +25072,7 @@
         <v/>
       </c>
       <c r="AN128" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AO128" s="15" t="str">
         <f t="shared" si="127"/>
@@ -24978,10 +25131,18 @@
       <c r="F129" s="26">
         <v>126</v>
       </c>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="15"/>
+      <c r="G129" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H129" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I129" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J129" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="K129" s="15" t="str">
         <f t="shared" ref="K129:AO129" si="128">IF(K282="", "", CONCATENATE("d", K282))</f>
         <v/>
@@ -24991,10 +25152,10 @@
         <v/>
       </c>
       <c r="M129" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N129" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O129" s="15" t="str">
         <f t="shared" si="128"/>
@@ -25005,7 +25166,7 @@
         <v/>
       </c>
       <c r="Q129" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R129" s="15" t="str">
         <f t="shared" si="128"/>
@@ -25036,25 +25197,23 @@
         <v/>
       </c>
       <c r="Y129" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Z129" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA129" s="15" t="s">
-        <v>125</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="AA129" s="15"/>
       <c r="AB129" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AC129" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AD129" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AE129" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AF129" s="15" t="str">
         <f t="shared" si="128"/>
@@ -25089,7 +25248,7 @@
         <v/>
       </c>
       <c r="AN129" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AO129" s="15" t="str">
         <f t="shared" si="128"/>
@@ -25148,10 +25307,18 @@
       <c r="F130" s="26">
         <v>127</v>
       </c>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="15"/>
+      <c r="G130" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H130" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I130" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J130" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="K130" s="15" t="str">
         <f t="shared" ref="K130:AO130" si="129">IF(K283="", "", CONCATENATE("d", K283))</f>
         <v/>
@@ -25161,10 +25328,10 @@
         <v/>
       </c>
       <c r="M130" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N130" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O130" s="15" t="str">
         <f t="shared" si="129"/>
@@ -25175,7 +25342,7 @@
         <v/>
       </c>
       <c r="Q130" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R130" s="15" t="str">
         <f t="shared" si="129"/>
@@ -25206,31 +25373,29 @@
         <v/>
       </c>
       <c r="Y130" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="Z130" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA130" s="15" t="s">
-        <v>128</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="AA130" s="15"/>
       <c r="AB130" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AC130" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AD130" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AE130" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AF130" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AG130" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AH130" s="15" t="str">
         <f t="shared" si="129"/>
@@ -25257,7 +25422,7 @@
         <v/>
       </c>
       <c r="AN130" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AO130" s="15" t="str">
         <f t="shared" si="129"/>
@@ -25345,7 +25510,7 @@
         <v/>
       </c>
       <c r="Q131" s="15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="R131" s="15" t="str">
         <f t="shared" si="130"/>
@@ -25907,7 +26072,7 @@
         <v/>
       </c>
       <c r="Q134" s="15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="R134" s="15" t="str">
         <f t="shared" si="133"/>
@@ -26443,7 +26608,7 @@
         <v/>
       </c>
       <c r="Q137" s="15" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="R137" s="15" t="str">
         <f t="shared" si="136"/>
@@ -26619,10 +26784,10 @@
         <v/>
       </c>
       <c r="P138" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q138" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="R138" s="15" t="str">
         <f t="shared" si="137"/>
@@ -26661,7 +26826,7 @@
         <v/>
       </c>
       <c r="AA138" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AB138" s="15" t="str">
         <f t="shared" si="137"/>
@@ -26672,7 +26837,7 @@
         <v/>
       </c>
       <c r="AD138" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AE138" s="15" t="str">
         <f t="shared" si="137"/>
@@ -26687,22 +26852,22 @@
         <v/>
       </c>
       <c r="AH138" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AI138" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AJ138" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AK138" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AL138" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AM138" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AN138" s="15" t="str">
         <f t="shared" si="137"/>
@@ -26770,10 +26935,10 @@
       <c r="I139" s="15"/>
       <c r="J139" s="15"/>
       <c r="K139" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L139" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M139" s="15" t="str">
         <f t="shared" ref="M139:AN139" si="138">IF(M292="", "", CONCATENATE("d", M292))</f>
@@ -26784,32 +26949,32 @@
         <v/>
       </c>
       <c r="O139" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P139" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="Q139" s="15"/>
       <c r="R139" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="S139" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="T139" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="U139" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="V139" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="W139" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="X139" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="Y139" s="15" t="str">
         <f t="shared" si="138"/>
@@ -26820,7 +26985,7 @@
         <v/>
       </c>
       <c r="AA139" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AB139" s="15" t="str">
         <f t="shared" si="138"/>
@@ -26831,7 +26996,7 @@
         <v/>
       </c>
       <c r="AD139" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AE139" s="15" t="str">
         <f t="shared" si="138"/>
@@ -26846,29 +27011,29 @@
         <v/>
       </c>
       <c r="AH139" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AI139" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AJ139" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AK139" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AL139" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AM139" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AN139" s="15" t="str">
         <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="AO139" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AP139" s="32">
         <v>2</v>
@@ -26930,10 +27095,10 @@
       <c r="I140" s="15"/>
       <c r="J140" s="15"/>
       <c r="K140" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L140" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M140" s="15" t="str">
         <f t="shared" ref="M140:AN140" si="139">IF(M293="", "", CONCATENATE("d", M293))</f>
@@ -26944,35 +27109,35 @@
         <v/>
       </c>
       <c r="O140" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P140" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="Q140" s="15" t="str">
         <f t="shared" si="139"/>
         <v/>
       </c>
       <c r="R140" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="S140" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="T140" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="U140" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="V140" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="W140" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="X140" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="Y140" s="15" t="str">
         <f t="shared" si="139"/>
@@ -26983,7 +27148,7 @@
         <v/>
       </c>
       <c r="AA140" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AB140" s="15" t="str">
         <f t="shared" si="139"/>
@@ -26994,7 +27159,7 @@
         <v/>
       </c>
       <c r="AD140" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AE140" s="15" t="str">
         <f t="shared" si="139"/>
@@ -27009,29 +27174,29 @@
         <v/>
       </c>
       <c r="AH140" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AI140" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AJ140" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AK140" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AL140" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AM140" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AN140" s="15" t="str">
         <f t="shared" si="139"/>
         <v/>
       </c>
       <c r="AO140" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AP140" s="32">
         <v>1</v>
@@ -27436,8 +27601,12 @@
       <c r="F143" s="26">
         <v>140</v>
       </c>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
+      <c r="G143" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H143" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="I143" s="15"/>
       <c r="J143" s="15"/>
       <c r="K143" s="15" t="str">
@@ -27449,10 +27618,10 @@
         <v/>
       </c>
       <c r="M143" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N143" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O143" s="15" t="str">
         <f t="shared" si="142"/>
@@ -27463,7 +27632,7 @@
         <v/>
       </c>
       <c r="Q143" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R143" s="15" t="str">
         <f t="shared" si="142"/>
@@ -27494,14 +27663,12 @@
         <v/>
       </c>
       <c r="Y143" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Z143" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA143" s="15" t="s">
-        <v>123</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="AA143" s="15"/>
       <c r="AB143" s="15" t="str">
         <f t="shared" si="142"/>
         <v/>
@@ -27551,7 +27718,7 @@
         <v/>
       </c>
       <c r="AN143" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AO143" s="15" t="str">
         <f t="shared" si="142"/>
@@ -27610,8 +27777,12 @@
       <c r="F144" s="26">
         <v>141</v>
       </c>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15"/>
+      <c r="G144" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H144" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="I144" s="15"/>
       <c r="J144" s="15"/>
       <c r="K144" s="15" t="str">
@@ -27623,10 +27794,10 @@
         <v/>
       </c>
       <c r="M144" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N144" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O144" s="15" t="str">
         <f t="shared" si="143"/>
@@ -27637,7 +27808,7 @@
         <v/>
       </c>
       <c r="Q144" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R144" s="15" t="str">
         <f t="shared" si="143"/>
@@ -27668,14 +27839,12 @@
         <v/>
       </c>
       <c r="Y144" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Z144" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA144" s="15" t="s">
-        <v>123</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="AA144" s="15"/>
       <c r="AB144" s="15" t="str">
         <f t="shared" si="143"/>
         <v/>
@@ -27725,7 +27894,7 @@
         <v/>
       </c>
       <c r="AN144" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AO144" s="15" t="str">
         <f t="shared" si="143"/>
@@ -27812,9 +27981,8 @@
         <f t="shared" si="144"/>
         <v/>
       </c>
-      <c r="Q145" s="15" t="str">
-        <f t="shared" si="144"/>
-        <v/>
+      <c r="Q145" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="R145" s="15" t="str">
         <f t="shared" si="144"/>
@@ -27912,7 +28080,9 @@
         <f t="shared" si="144"/>
         <v/>
       </c>
-      <c r="AP145" s="32"/>
+      <c r="AP145" s="32">
+        <v>2</v>
+      </c>
       <c r="AQ145" s="18"/>
       <c r="AR145" s="17"/>
       <c r="AS145" s="17"/>
@@ -27970,10 +28140,10 @@
       <c r="I146" s="15"/>
       <c r="J146" s="15"/>
       <c r="K146" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L146" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M146" s="15" t="str">
         <f t="shared" ref="M146:AN146" si="145">IF(M299="", "", CONCATENATE("d", M299))</f>
@@ -27984,36 +28154,36 @@
         <v/>
       </c>
       <c r="O146" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P146" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q146" s="15" t="str">
         <f t="shared" si="145"/>
         <v/>
       </c>
       <c r="R146" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="S146" s="15" t="str">
         <f t="shared" si="145"/>
         <v/>
       </c>
       <c r="T146" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="U146" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="V146" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="W146" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="X146" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Y146" s="15" t="str">
         <f t="shared" si="145"/>
@@ -28024,7 +28194,7 @@
         <v/>
       </c>
       <c r="AA146" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AB146" s="15" t="str">
         <f t="shared" si="145"/>
@@ -28035,7 +28205,7 @@
         <v/>
       </c>
       <c r="AD146" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AE146" s="15" t="str">
         <f t="shared" si="145"/>
@@ -28050,29 +28220,29 @@
         <v/>
       </c>
       <c r="AH146" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AI146" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AJ146" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AK146" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AL146" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AM146" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AN146" s="15" t="str">
         <f t="shared" si="145"/>
         <v/>
       </c>
       <c r="AO146" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AP146" s="32"/>
       <c r="AQ146" s="18"/>
@@ -28154,7 +28324,7 @@
         <v/>
       </c>
       <c r="Q147" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="R147" s="15" t="str">
         <f t="shared" si="146"/>
@@ -28529,10 +28699,10 @@
       <c r="I149" s="15"/>
       <c r="J149" s="15"/>
       <c r="K149" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L149" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M149" s="15" t="str">
         <f t="shared" ref="M149:AN149" si="148">IF(M302="", "", CONCATENATE("d", M302))</f>
@@ -28543,32 +28713,32 @@
         <v/>
       </c>
       <c r="O149" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="P149" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q149" s="15" t="str">
         <f t="shared" si="148"/>
         <v/>
       </c>
       <c r="R149" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="S149" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="T149" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="U149" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="V149" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="W149" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="X149" s="15" t="str">
         <f t="shared" si="148"/>
@@ -28583,7 +28753,7 @@
         <v/>
       </c>
       <c r="AA149" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AB149" s="15" t="str">
         <f t="shared" si="148"/>
@@ -28594,7 +28764,7 @@
         <v/>
       </c>
       <c r="AD149" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AE149" s="15" t="str">
         <f t="shared" si="148"/>
@@ -28609,29 +28779,29 @@
         <v/>
       </c>
       <c r="AH149" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AI149" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AJ149" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AK149" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AL149" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AM149" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AN149" s="15" t="str">
         <f t="shared" si="148"/>
         <v/>
       </c>
       <c r="AO149" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AP149" s="32"/>
       <c r="AQ149" s="18"/>
@@ -28930,7 +29100,7 @@
         <v/>
       </c>
       <c r="Q151" s="15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="R151" s="15" t="str">
         <f t="shared" si="150"/>
@@ -29110,7 +29280,7 @@
         <v/>
       </c>
       <c r="Q152" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="R152" s="15" t="str">
         <f t="shared" si="151"/>
@@ -29266,10 +29436,10 @@
       <c r="I153" s="15"/>
       <c r="J153" s="15"/>
       <c r="K153" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L153" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M153" s="15" t="str">
         <f t="shared" ref="M153:AN153" si="152">IF(M306="", "", CONCATENATE("d", M306))</f>
@@ -29280,35 +29450,35 @@
         <v/>
       </c>
       <c r="O153" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P153" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Q153" s="15" t="str">
         <f t="shared" si="152"/>
         <v/>
       </c>
       <c r="R153" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="S153" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="T153" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="U153" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="V153" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="W153" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="X153" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Y153" s="15" t="str">
         <f t="shared" si="152"/>
@@ -29319,7 +29489,7 @@
         <v/>
       </c>
       <c r="AA153" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AB153" s="15" t="str">
         <f t="shared" si="152"/>
@@ -29330,7 +29500,7 @@
         <v/>
       </c>
       <c r="AD153" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AE153" s="15" t="str">
         <f t="shared" si="152"/>
@@ -29345,29 +29515,29 @@
         <v/>
       </c>
       <c r="AH153" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AI153" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ153" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AK153" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AL153" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AM153" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AN153" s="15" t="str">
         <f t="shared" si="152"/>
         <v/>
       </c>
       <c r="AO153" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AP153" s="32"/>
       <c r="AQ153" s="18"/>
@@ -29423,12 +29593,12 @@
       <c r="G154" s="15"/>
       <c r="H154" s="15"/>
       <c r="I154" s="15"/>
-      <c r="J154" s="42"/>
-      <c r="K154" s="42" t="s">
-        <v>152</v>
+      <c r="J154" s="15"/>
+      <c r="K154" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="L154" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M154" s="15" t="str">
         <f t="shared" ref="M154:AN154" si="153">IF(M307="", "", CONCATENATE("d", M307))</f>
@@ -29439,35 +29609,35 @@
         <v/>
       </c>
       <c r="O154" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P154" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="Q154" s="15" t="str">
         <f t="shared" si="153"/>
         <v/>
       </c>
       <c r="R154" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="S154" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="T154" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="U154" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="V154" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="W154" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="X154" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="Y154" s="15" t="str">
         <f t="shared" si="153"/>
@@ -29478,7 +29648,7 @@
         <v/>
       </c>
       <c r="AA154" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AB154" s="15" t="str">
         <f t="shared" si="153"/>
@@ -29489,7 +29659,7 @@
         <v/>
       </c>
       <c r="AD154" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AE154" s="15" t="str">
         <f t="shared" si="153"/>
@@ -29504,29 +29674,29 @@
         <v/>
       </c>
       <c r="AH154" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AI154" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AJ154" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AK154" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AL154" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AM154" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AN154" s="15" t="str">
         <f t="shared" si="153"/>
         <v/>
       </c>
       <c r="AO154" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AP154" s="35">
         <v>1</v>
@@ -29585,10 +29755,10 @@
       <c r="I155" s="21"/>
       <c r="J155" s="21"/>
       <c r="K155" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L155" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M155" s="21"/>
       <c r="N155" s="21" t="str">
@@ -29596,35 +29766,35 @@
         <v/>
       </c>
       <c r="O155" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="P155" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="Q155" s="21" t="str">
         <f>IF(Q206="", "", CONCATENATE("d", Q206))</f>
         <v/>
       </c>
       <c r="R155" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S155" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="T155" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U155" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="V155" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="W155" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="X155" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="Y155" s="21" t="str">
         <f>IF(Y206="", "", CONCATENATE("d", Y206))</f>
@@ -29635,7 +29805,7 @@
         <v/>
       </c>
       <c r="AA155" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AB155" s="21" t="str">
         <f>IF(AB206="", "", CONCATENATE("d", AB206))</f>
@@ -29646,7 +29816,7 @@
         <v/>
       </c>
       <c r="AD155" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AE155" s="21" t="str">
         <f>IF(AE206="", "", CONCATENATE("d", AE206))</f>
@@ -29661,29 +29831,29 @@
         <v/>
       </c>
       <c r="AH155" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AI155" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AJ155" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AK155" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AL155" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AM155" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AN155" s="21" t="str">
         <f>IF(AN206="", "", CONCATENATE("d", AN206))</f>
         <v/>
       </c>
       <c r="AO155" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AP155" s="33"/>
       <c r="AQ155" s="22"/>

--- a/out/production/compiladorProyectoFinal/ConjuntosPrimeroSiguienteYTabla.xlsx
+++ b/out/production/compiladorProyectoFinal/ConjuntosPrimeroSiguienteYTabla.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,6 +19,7 @@
     <definedName name="ap">Hoja1!$F$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1425,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99923972-C091-4E9D-9C54-8623750091A9}">
   <dimension ref="A1:CJ303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L111" sqref="L111"/>
+    <sheetView tabSelected="1" topLeftCell="BW126" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CH147" sqref="CH147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21864,7 +21865,7 @@
         <v>143</v>
       </c>
       <c r="N111" s="15" t="str">
-        <f t="shared" ref="M111:AG111" si="110">IF(N264="", "", CONCATENATE("d", N264))</f>
+        <f t="shared" ref="N111:AG111" si="110">IF(N264="", "", CONCATENATE("d", N264))</f>
         <v/>
       </c>
       <c r="O111" s="15" t="s">
